--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C349468F-5587-4B80-9190-94A2FD6C24D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920B74B0-B65E-41CB-BE20-73ECF74582C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Aufwand (h)</t>
   </si>
@@ -105,9 +106,6 @@
   <si>
     <t xml:space="preserve">Validierung Felder (Datum, Preis, 
 Dropdown u.s.w) </t>
-  </si>
-  <si>
-    <t>Excel &amp; PDF Export</t>
   </si>
   <si>
     <t>Umgebung fürs Testen einrichten</t>
@@ -212,8 +210,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) Autorisierung (Login &amp; Logout), Rollen</t>
+      <t>) Backend &amp; DB entwickeln für Datenspeicherung</t>
     </r>
+  </si>
+  <si>
+    <t>Pufferzeit für entwicklung</t>
   </si>
   <si>
     <r>
@@ -238,8 +239,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) Backend &amp; DB entwickeln für Datenspeicherung</t>
+      <t>) Autorisierung (Login &amp; Logout)</t>
     </r>
+  </si>
+  <si>
+    <t>in pg 1.00</t>
+  </si>
+  <si>
+    <t>in pg 3.00</t>
+  </si>
+  <si>
+    <t>in pg 6.00</t>
   </si>
 </sst>
 </file>
@@ -947,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -994,6 +1004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1135,6 +1146,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1153,12 +1167,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1469,117 +1480,117 @@
   </sheetPr>
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="5" width="4.42578125" customWidth="1"/>
-    <col min="6" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" customWidth="1"/>
-    <col min="14" max="27" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" customWidth="1"/>
+    <col min="4" max="5" width="4.453125" customWidth="1"/>
+    <col min="6" max="10" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.453125" customWidth="1"/>
+    <col min="12" max="12" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" customWidth="1"/>
+    <col min="14" max="27" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="48"/>
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="36" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="39" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="36" t="s">
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="39" t="s">
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="26" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="29" t="s">
+    <row r="2" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="32" t="s">
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="27"/>
-    </row>
-    <row r="3" spans="1:31" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="28"/>
+    </row>
+    <row r="3" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1587,87 +1598,89 @@
         <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W3" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X3" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="28"/>
-    </row>
-    <row r="4" spans="1:31" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="52">
+        <v>37</v>
+      </c>
+      <c r="AB3" s="29"/>
+    </row>
+    <row r="4" spans="1:31" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="53">
         <v>33</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="D4" s="20"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1690,58 +1703,60 @@
       <c r="W4" s="23"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="65"/>
+      <c r="Z4" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="66"/>
       <c r="AD4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="54"/>
+    <row r="5" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="21"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="15"/>
       <c r="H5" s="12"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="15"/>
       <c r="L5" s="12"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="24"/>
       <c r="P5" s="21"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="15"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
       <c r="T5" s="12"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="24"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="61"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="62"/>
       <c r="AD5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="52">
+      <c r="B6" s="53">
         <v>2</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="55">
+        <v>1.5</v>
+      </c>
       <c r="D6" s="20"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1764,19 +1779,19 @@
       <c r="W6" s="24"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="61"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="62"/>
       <c r="AD6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE6" s="6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="21"/>
+    <row r="7" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="15"/>
@@ -1798,18 +1813,20 @@
       <c r="W7" s="24"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="61"/>
-    </row>
-    <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="62"/>
+    </row>
+    <row r="8" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="52">
+      <c r="B8" s="53">
         <v>2</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="55">
+        <v>2.5</v>
+      </c>
       <c r="D8" s="21"/>
       <c r="E8" s="9"/>
       <c r="F8" s="4"/>
@@ -1832,17 +1849,17 @@
       <c r="W8" s="24"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="61"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="54"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="62"/>
+    </row>
+    <row r="9" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="51"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="15"/>
       <c r="H9" s="12"/>
       <c r="I9" s="4"/>
@@ -1862,18 +1879,20 @@
       <c r="W9" s="24"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="61"/>
-    </row>
-    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="78"/>
+      <c r="AB9" s="62"/>
+    </row>
+    <row r="10" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="53">
         <v>2</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="55">
+        <v>0.5</v>
+      </c>
       <c r="D10" s="21"/>
       <c r="E10" s="4"/>
       <c r="F10" s="9"/>
@@ -1896,17 +1915,17 @@
       <c r="W10" s="24"/>
       <c r="X10" s="21"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="61"/>
-    </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="62"/>
+    </row>
+    <row r="11" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="67"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="21"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="15"/>
       <c r="H11" s="12"/>
       <c r="I11" s="4"/>
@@ -1926,22 +1945,24 @@
       <c r="W11" s="24"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="62"/>
-      <c r="AD11" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE11" s="79"/>
-    </row>
-    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="63"/>
+      <c r="AD11" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="74"/>
+    </row>
+    <row r="12" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="64">
         <v>1</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="65">
+        <v>1</v>
+      </c>
       <c r="D12" s="21"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -1964,20 +1985,20 @@
       <c r="W12" s="24"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="61" t="s">
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="55"/>
+    <row r="13" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="52"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="21"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="15"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="12"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1996,18 +2017,20 @@
       <c r="W13" s="24"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="62"/>
-    </row>
-    <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="57">
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="78"/>
+      <c r="AB13" s="63"/>
+    </row>
+    <row r="14" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="58">
         <v>1</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="59">
+        <v>1</v>
+      </c>
       <c r="D14" s="21"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2030,20 +2053,20 @@
       <c r="W14" s="24"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="69" t="s">
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="54"/>
+    <row r="15" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="21"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="15"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="12"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -2062,18 +2085,20 @@
       <c r="W15" s="24"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="61"/>
-    </row>
-    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="50" t="s">
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="62"/>
+    </row>
+    <row r="16" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="52">
+      <c r="B16" s="53">
         <v>2</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="55">
+        <v>1.5</v>
+      </c>
       <c r="D16" s="21"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2096,19 +2121,19 @@
       <c r="W16" s="24"/>
       <c r="X16" s="21"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="61"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="54"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="62"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="51"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="21"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="15"/>
@@ -2126,18 +2151,20 @@
       <c r="W17" s="24"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="61"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="50" t="s">
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="62"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="52">
+      <c r="B18" s="53">
         <v>1.5</v>
       </c>
-      <c r="C18" s="54"/>
+      <c r="C18" s="55">
+        <v>2</v>
+      </c>
       <c r="D18" s="21"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2160,20 +2187,20 @@
       <c r="W18" s="24"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="61"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="54"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="62"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="51"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="21"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="15"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="4"/>
       <c r="K19" s="15"/>
       <c r="L19" s="12"/>
@@ -2190,18 +2217,18 @@
       <c r="W19" s="24"/>
       <c r="X19" s="21"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="75"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="61"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
+      <c r="Z19" s="77"/>
+      <c r="AA19" s="78"/>
+      <c r="AB19" s="62"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="53">
         <v>2</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="21"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2224,14 +2251,14 @@
       <c r="W20" s="24"/>
       <c r="X20" s="21"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="61"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="55"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="62"/>
+    </row>
+    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="52"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="21"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2254,18 +2281,20 @@
       <c r="W21" s="24"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="62"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="63"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="64">
         <v>0.5</v>
       </c>
-      <c r="C22" s="64"/>
+      <c r="C22" s="65">
+        <v>0.5</v>
+      </c>
       <c r="D22" s="21"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2288,23 +2317,23 @@
       <c r="W22" s="24"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="67" t="s">
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="55"/>
+    <row r="23" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="52"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="21"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="15"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="5"/>
       <c r="K23" s="15"/>
       <c r="L23" s="12"/>
       <c r="M23" s="4"/>
@@ -2320,18 +2349,20 @@
       <c r="W23" s="24"/>
       <c r="X23" s="21"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="68"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="78"/>
+      <c r="AB23" s="69"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="63">
+      <c r="B24" s="64">
         <v>1</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="65">
+        <v>1</v>
+      </c>
       <c r="D24" s="21"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2354,16 +2385,16 @@
       <c r="W24" s="24"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="75"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="69" t="s">
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="78"/>
+      <c r="AB24" s="70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="54"/>
+    <row r="25" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="51"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="21"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2371,7 +2402,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="15"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="12"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -2386,18 +2417,20 @@
       <c r="W25" s="24"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="61"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="78"/>
+      <c r="AB25" s="62"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="52">
+      <c r="B26" s="53">
         <v>1.5</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="55">
+        <v>0.5</v>
+      </c>
       <c r="D26" s="21"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2420,14 +2453,14 @@
       <c r="W26" s="24"/>
       <c r="X26" s="21"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="75"/>
-      <c r="AA26" s="76"/>
-      <c r="AB26" s="61"/>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="54"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="62"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="51"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="21"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2435,7 +2468,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="15"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="12"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -2450,18 +2483,20 @@
       <c r="W27" s="24"/>
       <c r="X27" s="21"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="75"/>
-      <c r="AA27" s="76"/>
-      <c r="AB27" s="61"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="52">
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="78"/>
+      <c r="AB27" s="62"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="53">
         <v>2</v>
       </c>
-      <c r="C28" s="54"/>
+      <c r="C28" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D28" s="21"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2484,14 +2519,14 @@
       <c r="W28" s="24"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="61"/>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="54"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="78"/>
+      <c r="AB28" s="62"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="67"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="21"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2500,10 +2535,10 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="15"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
       <c r="N29" s="4"/>
-      <c r="O29" s="24"/>
+      <c r="O29" s="5"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -2514,18 +2549,18 @@
       <c r="W29" s="24"/>
       <c r="X29" s="21"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="76"/>
-      <c r="AB29" s="61"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="72">
+      <c r="Z29" s="77"/>
+      <c r="AA29" s="78"/>
+      <c r="AB29" s="62"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="73">
         <v>4</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="21"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2548,14 +2583,14 @@
       <c r="W30" s="24"/>
       <c r="X30" s="21"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="75"/>
-      <c r="AA30" s="76"/>
-      <c r="AB30" s="61"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="54"/>
+      <c r="Z30" s="77"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="62"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A31" s="72"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="21"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2578,18 +2613,20 @@
       <c r="W31" s="24"/>
       <c r="X31" s="21"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="76"/>
-      <c r="AB31" s="61"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="72">
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="62"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="73">
         <v>3.5</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="D32" s="21"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2612,14 +2649,14 @@
       <c r="W32" s="24"/>
       <c r="X32" s="21"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="75"/>
-      <c r="AA32" s="76"/>
-      <c r="AB32" s="61"/>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="54"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="62"/>
+    </row>
+    <row r="33" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="72"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="21"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2629,7 +2666,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="15"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="4"/>
+      <c r="M33" s="5"/>
       <c r="N33" s="4"/>
       <c r="O33" s="24"/>
       <c r="P33" s="21"/>
@@ -2642,18 +2679,18 @@
       <c r="W33" s="24"/>
       <c r="X33" s="21"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="75"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="61"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="70" t="s">
+      <c r="Z33" s="77"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="62"/>
+    </row>
+    <row r="34" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="73">
         <v>1</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="21"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2676,14 +2713,14 @@
       <c r="W34" s="24"/>
       <c r="X34" s="21"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="76"/>
-      <c r="AB34" s="61"/>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="54"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="78"/>
+      <c r="AB34" s="62"/>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A35" s="72"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="21"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2706,18 +2743,18 @@
       <c r="W35" s="24"/>
       <c r="X35" s="21"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="76"/>
-      <c r="AB35" s="61"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="52">
+      <c r="Z35" s="77"/>
+      <c r="AA35" s="78"/>
+      <c r="AB35" s="62"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="53">
         <v>1</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="21"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2740,14 +2777,14 @@
       <c r="W36" s="24"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="75"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="61"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="50"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="54"/>
+      <c r="Z36" s="77"/>
+      <c r="AA36" s="78"/>
+      <c r="AB36" s="62"/>
+    </row>
+    <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="51"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="21"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2770,18 +2807,18 @@
       <c r="W37" s="24"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="75"/>
-      <c r="AA37" s="76"/>
-      <c r="AB37" s="61"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="63">
+      <c r="Z37" s="77"/>
+      <c r="AA37" s="78"/>
+      <c r="AB37" s="62"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="64">
         <v>1</v>
       </c>
-      <c r="C38" s="64"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="21"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2804,16 +2841,16 @@
       <c r="W38" s="24"/>
       <c r="X38" s="21"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="75"/>
-      <c r="AA38" s="76"/>
-      <c r="AB38" s="69" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="54"/>
+      <c r="Z38" s="77"/>
+      <c r="AA38" s="78"/>
+      <c r="AB38" s="70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A39" s="51"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="21"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2836,18 +2873,18 @@
       <c r="W39" s="24"/>
       <c r="X39" s="21"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="75"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="61"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="52">
+      <c r="Z39" s="77"/>
+      <c r="AA39" s="78"/>
+      <c r="AB39" s="62"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="53">
         <v>2</v>
       </c>
-      <c r="C40" s="54"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="21"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2870,14 +2907,14 @@
       <c r="W40" s="23"/>
       <c r="X40" s="21"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="76"/>
-      <c r="AB40" s="61"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="55"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="62"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A41" s="52"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="21"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2900,18 +2937,18 @@
       <c r="W41" s="24"/>
       <c r="X41" s="21"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="75"/>
-      <c r="AA41" s="76"/>
-      <c r="AB41" s="62"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="63">
+      <c r="Z41" s="77"/>
+      <c r="AA41" s="78"/>
+      <c r="AB41" s="63"/>
+    </row>
+    <row r="42" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="64">
         <v>2</v>
       </c>
-      <c r="C42" s="64"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="21"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2934,16 +2971,16 @@
       <c r="W42" s="24"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="9"/>
-      <c r="Z42" s="75"/>
-      <c r="AA42" s="76"/>
-      <c r="AB42" s="67" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="55"/>
+      <c r="Z42" s="77"/>
+      <c r="AA42" s="78"/>
+      <c r="AB42" s="68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="52"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="21"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2966,13 +3003,13 @@
       <c r="W43" s="24"/>
       <c r="X43" s="21"/>
       <c r="Y43" s="4"/>
-      <c r="Z43" s="77"/>
-      <c r="AA43" s="78"/>
-      <c r="AB43" s="68"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z43" s="79"/>
+      <c r="AA43" s="80"/>
+      <c r="AB43" s="69"/>
+    </row>
+    <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44" s="8">
         <f>SUM(B4:B43)</f>
@@ -2980,12 +3017,11 @@
       </c>
       <c r="C44" s="8">
         <f>SUM(C4:C43)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="C34:C35"/>
     <mergeCell ref="AD11:AE11"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A42:A43"/>
@@ -3008,6 +3044,7 @@
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="AB14:AB21"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>

--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920B74B0-B65E-41CB-BE20-73ECF74582C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF597094-E379-4D38-BE34-8A97677ED695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>Aufwand (h)</t>
   </si>
@@ -241,15 +240,6 @@
       </rPr>
       <t>) Autorisierung (Login &amp; Logout)</t>
     </r>
-  </si>
-  <si>
-    <t>in pg 1.00</t>
-  </si>
-  <si>
-    <t>in pg 3.00</t>
-  </si>
-  <si>
-    <t>in pg 6.00</t>
   </si>
 </sst>
 </file>
@@ -1005,6 +995,117 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1056,120 +1157,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1480,11 +1470,11 @@
   </sheetPr>
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
     <col min="2" max="2" width="11.453125" customWidth="1"/>
@@ -1500,97 +1490,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="37" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="43" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40" t="s">
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="37" t="s">
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="40" t="s">
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="27" t="s">
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="64" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="30" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="30" t="s">
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="33" t="s">
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="30" t="s">
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="28"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="65"/>
     </row>
     <row r="3" spans="1:31" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1669,17 +1659,17 @@
       <c r="AA3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="29"/>
+      <c r="AB3" s="66"/>
     </row>
     <row r="4" spans="1:31" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="37">
         <v>33</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>47</v>
+      <c r="C4" s="38">
+        <v>12</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="9"/>
@@ -1703,20 +1693,20 @@
       <c r="W4" s="23"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="9"/>
-      <c r="Z4" s="75" t="s">
+      <c r="Z4" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="66"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="52"/>
       <c r="AD4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AE4" s="9"/>
     </row>
     <row r="5" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="51"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="21"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1733,28 +1723,28 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="24"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
       <c r="X5" s="21"/>
       <c r="Y5" s="4"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="62"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="40"/>
       <c r="AD5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="38">
         <v>1.5</v>
       </c>
       <c r="D6" s="20"/>
@@ -1779,18 +1769,18 @@
       <c r="W6" s="24"/>
       <c r="X6" s="21"/>
       <c r="Y6" s="4"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="62"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="40"/>
       <c r="AD6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="AE6" s="6"/>
     </row>
     <row r="7" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1813,18 +1803,18 @@
       <c r="W7" s="24"/>
       <c r="X7" s="21"/>
       <c r="Y7" s="4"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="62"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="40"/>
     </row>
     <row r="8" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="37">
         <v>2</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="38">
         <v>2.5</v>
       </c>
       <c r="D8" s="21"/>
@@ -1849,14 +1839,14 @@
       <c r="W8" s="24"/>
       <c r="X8" s="21"/>
       <c r="Y8" s="4"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="62"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="40"/>
     </row>
     <row r="9" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="55"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="21"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1879,18 +1869,18 @@
       <c r="W9" s="24"/>
       <c r="X9" s="21"/>
       <c r="Y9" s="4"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="62"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="40"/>
     </row>
     <row r="10" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="37">
         <v>2</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="38">
         <v>0.5</v>
       </c>
       <c r="D10" s="21"/>
@@ -1915,14 +1905,14 @@
       <c r="W10" s="24"/>
       <c r="X10" s="21"/>
       <c r="Y10" s="4"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="62"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="40"/>
     </row>
     <row r="11" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="67"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="21"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
@@ -1945,22 +1935,22 @@
       <c r="W11" s="24"/>
       <c r="X11" s="21"/>
       <c r="Y11" s="4"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="63"/>
-      <c r="AD11" s="74" t="s">
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="41"/>
+      <c r="AD11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AE11" s="74"/>
+      <c r="AE11" s="27"/>
     </row>
     <row r="12" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="31">
         <v>1</v>
       </c>
-      <c r="C12" s="65">
+      <c r="C12" s="33">
         <v>1</v>
       </c>
       <c r="D12" s="21"/>
@@ -1985,16 +1975,16 @@
       <c r="W12" s="24"/>
       <c r="X12" s="21"/>
       <c r="Y12" s="4"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="62" t="s">
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="40" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="52"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="21"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2017,18 +2007,18 @@
       <c r="W13" s="24"/>
       <c r="X13" s="21"/>
       <c r="Y13" s="4"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="63"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="41"/>
     </row>
     <row r="14" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="60">
         <v>1</v>
       </c>
-      <c r="C14" s="59">
+      <c r="C14" s="61">
         <v>1</v>
       </c>
       <c r="D14" s="21"/>
@@ -2053,16 +2043,16 @@
       <c r="W14" s="24"/>
       <c r="X14" s="21"/>
       <c r="Y14" s="9"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="70" t="s">
+      <c r="Z14" s="44"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="21"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2085,18 +2075,18 @@
       <c r="W15" s="24"/>
       <c r="X15" s="21"/>
       <c r="Y15" s="4"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="62"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="40"/>
     </row>
     <row r="16" spans="1:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="37">
         <v>2</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="38">
         <v>1.5</v>
       </c>
       <c r="D16" s="21"/>
@@ -2121,14 +2111,14 @@
       <c r="W16" s="24"/>
       <c r="X16" s="21"/>
       <c r="Y16" s="4"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="62"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="40"/>
     </row>
     <row r="17" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="51"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="21"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2151,18 +2141,18 @@
       <c r="W17" s="24"/>
       <c r="X17" s="21"/>
       <c r="Y17" s="4"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="62"/>
+      <c r="Z17" s="44"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="40"/>
     </row>
     <row r="18" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="37">
         <v>1.5</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="38">
         <v>2</v>
       </c>
       <c r="D18" s="21"/>
@@ -2187,14 +2177,14 @@
       <c r="W18" s="24"/>
       <c r="X18" s="21"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="78"/>
-      <c r="AB18" s="62"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="40"/>
     </row>
     <row r="19" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="51"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="21"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2217,18 +2207,20 @@
       <c r="W19" s="24"/>
       <c r="X19" s="21"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="77"/>
-      <c r="AA19" s="78"/>
-      <c r="AB19" s="62"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="40"/>
     </row>
     <row r="20" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="37">
         <v>2</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="38">
+        <v>1</v>
+      </c>
       <c r="D20" s="21"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2251,14 +2243,14 @@
       <c r="W20" s="24"/>
       <c r="X20" s="21"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="62"/>
-    </row>
-    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="52"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="56"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="40"/>
+    </row>
+    <row r="21" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="21"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2272,7 +2264,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="24"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="4"/>
+      <c r="Q21" s="5"/>
       <c r="R21" s="4"/>
       <c r="S21" s="15"/>
       <c r="T21" s="12"/>
@@ -2281,18 +2273,18 @@
       <c r="W21" s="24"/>
       <c r="X21" s="21"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="77"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="63"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="41"/>
     </row>
     <row r="22" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="31">
         <v>0.5</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="33">
         <v>0.5</v>
       </c>
       <c r="D22" s="21"/>
@@ -2317,16 +2309,16 @@
       <c r="W22" s="24"/>
       <c r="X22" s="21"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="68" t="s">
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="35" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="52"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="56"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="21"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2349,18 +2341,18 @@
       <c r="W23" s="24"/>
       <c r="X23" s="21"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="78"/>
-      <c r="AB23" s="69"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="36"/>
     </row>
     <row r="24" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="31">
         <v>1</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="33">
         <v>1</v>
       </c>
       <c r="D24" s="21"/>
@@ -2385,16 +2377,16 @@
       <c r="W24" s="24"/>
       <c r="X24" s="21"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="78"/>
-      <c r="AB24" s="70" t="s">
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="39" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="51"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="21"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2417,18 +2409,18 @@
       <c r="W25" s="24"/>
       <c r="X25" s="21"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="77"/>
-      <c r="AA25" s="78"/>
-      <c r="AB25" s="62"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="40"/>
     </row>
     <row r="26" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="37">
         <v>1.5</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="38">
         <v>0.5</v>
       </c>
       <c r="D26" s="21"/>
@@ -2453,14 +2445,14 @@
       <c r="W26" s="24"/>
       <c r="X26" s="21"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="77"/>
-      <c r="AA26" s="78"/>
-      <c r="AB26" s="62"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="40"/>
     </row>
     <row r="27" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="51"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="55"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="21"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2483,19 +2475,19 @@
       <c r="W27" s="24"/>
       <c r="X27" s="21"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="78"/>
-      <c r="AB27" s="62"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="40"/>
     </row>
     <row r="28" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="37">
         <v>2</v>
       </c>
-      <c r="C28" s="55" t="s">
-        <v>46</v>
+      <c r="C28" s="38">
+        <v>5</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="4"/>
@@ -2519,14 +2511,14 @@
       <c r="W28" s="24"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="77"/>
-      <c r="AA28" s="78"/>
-      <c r="AB28" s="62"/>
+      <c r="Z28" s="44"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="40"/>
     </row>
     <row r="29" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="67"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="55"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="21"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2549,18 +2541,20 @@
       <c r="W29" s="24"/>
       <c r="X29" s="21"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="77"/>
-      <c r="AA29" s="78"/>
-      <c r="AB29" s="62"/>
+      <c r="Z29" s="44"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="40"/>
     </row>
     <row r="30" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="73">
+      <c r="B30" s="50">
         <v>4</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="38">
+        <v>1</v>
+      </c>
       <c r="D30" s="21"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2583,14 +2577,14 @@
       <c r="W30" s="24"/>
       <c r="X30" s="21"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="62"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A31" s="72"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="55"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="40"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="21"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2601,7 +2595,7 @@
       <c r="K31" s="15"/>
       <c r="L31" s="12"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="N31" s="5"/>
       <c r="O31" s="24"/>
       <c r="P31" s="21"/>
       <c r="Q31" s="4"/>
@@ -2613,19 +2607,19 @@
       <c r="W31" s="24"/>
       <c r="X31" s="21"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="62"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="40"/>
     </row>
     <row r="32" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="73">
+      <c r="B32" s="50">
         <v>3.5</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>45</v>
+      <c r="C32" s="38">
+        <v>2</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="4"/>
@@ -2649,14 +2643,14 @@
       <c r="W32" s="24"/>
       <c r="X32" s="21"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="62"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="40"/>
     </row>
     <row r="33" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="72"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="55"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="21"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2677,20 +2671,22 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="24"/>
-      <c r="X33" s="21"/>
+      <c r="X33" s="5"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="62"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="40"/>
     </row>
     <row r="34" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="50">
         <v>1</v>
       </c>
-      <c r="C34" s="55"/>
+      <c r="C34" s="38">
+        <v>0</v>
+      </c>
       <c r="D34" s="21"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2713,14 +2709,14 @@
       <c r="W34" s="24"/>
       <c r="X34" s="21"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="77"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="62"/>
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="45"/>
+      <c r="AB34" s="40"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A35" s="72"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="55"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="21"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2743,18 +2739,20 @@
       <c r="W35" s="24"/>
       <c r="X35" s="21"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="77"/>
-      <c r="AA35" s="78"/>
-      <c r="AB35" s="62"/>
+      <c r="Z35" s="44"/>
+      <c r="AA35" s="45"/>
+      <c r="AB35" s="40"/>
     </row>
     <row r="36" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="37">
         <v>1</v>
       </c>
-      <c r="C36" s="55"/>
+      <c r="C36" s="38">
+        <v>0</v>
+      </c>
       <c r="D36" s="21"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2777,14 +2775,14 @@
       <c r="W36" s="24"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="77"/>
-      <c r="AA36" s="78"/>
-      <c r="AB36" s="62"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="45"/>
+      <c r="AB36" s="40"/>
     </row>
     <row r="37" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="51"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="55"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="21"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2807,18 +2805,20 @@
       <c r="W37" s="24"/>
       <c r="X37" s="21"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="77"/>
-      <c r="AA37" s="78"/>
-      <c r="AB37" s="62"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="40"/>
     </row>
     <row r="38" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B38" s="64">
+      <c r="B38" s="31">
         <v>1</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="33">
+        <v>0</v>
+      </c>
       <c r="D38" s="21"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2841,16 +2841,16 @@
       <c r="W38" s="24"/>
       <c r="X38" s="21"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="77"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="70" t="s">
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="45"/>
+      <c r="AB38" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A39" s="51"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="55"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="21"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2873,18 +2873,20 @@
       <c r="W39" s="24"/>
       <c r="X39" s="21"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="77"/>
-      <c r="AA39" s="78"/>
-      <c r="AB39" s="62"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="40"/>
     </row>
     <row r="40" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="53">
+      <c r="B40" s="37">
         <v>2</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="38">
+        <v>0.5</v>
+      </c>
       <c r="D40" s="21"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2907,14 +2909,14 @@
       <c r="W40" s="23"/>
       <c r="X40" s="21"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="77"/>
-      <c r="AA40" s="78"/>
-      <c r="AB40" s="62"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="45"/>
+      <c r="AB40" s="40"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="21"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2937,18 +2939,20 @@
       <c r="W41" s="24"/>
       <c r="X41" s="21"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="77"/>
-      <c r="AA41" s="78"/>
-      <c r="AB41" s="63"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="45"/>
+      <c r="AB41" s="41"/>
     </row>
     <row r="42" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="64">
+      <c r="B42" s="31">
         <v>2</v>
       </c>
-      <c r="C42" s="65"/>
+      <c r="C42" s="33">
+        <v>0.5</v>
+      </c>
       <c r="D42" s="21"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2971,16 +2975,16 @@
       <c r="W42" s="24"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="9"/>
-      <c r="Z42" s="77"/>
-      <c r="AA42" s="78"/>
-      <c r="AB42" s="68" t="s">
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="45"/>
+      <c r="AB42" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="52"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="56"/>
+    <row r="43" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="30"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="21"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3002,10 +3006,10 @@
       <c r="V43" s="4"/>
       <c r="W43" s="24"/>
       <c r="X43" s="21"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="79"/>
-      <c r="AA43" s="80"/>
-      <c r="AB43" s="69"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="47"/>
+      <c r="AB43" s="36"/>
     </row>
     <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
@@ -3017,11 +3021,79 @@
       </c>
       <c r="C44" s="8">
         <f>SUM(C4:C43)</f>
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="AB4:AB11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="AB22:AB23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="AB24:AB37"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="AB14:AB21"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C34:C35"/>
     <mergeCell ref="AD11:AE11"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A42:A43"/>
@@ -3038,74 +3110,6 @@
     <mergeCell ref="Z4:AA43"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="AB14:AB21"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="AB22:AB23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="AB24:AB37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="AB4:AB11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="P1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="59" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
